--- a/data/math/math-35.xlsx
+++ b/data/math/math-35.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -957,7 +957,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>229</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>246</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>318</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>320</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8352,7 +8352,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -8410,7 +8410,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -8439,7 +8439,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8729,7 +8729,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -9106,7 +9106,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -9135,7 +9135,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -9164,7 +9164,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -9454,7 +9454,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -9512,7 +9512,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -9715,7 +9715,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -9773,7 +9773,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -9889,7 +9889,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -10121,7 +10121,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -10266,7 +10266,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -10324,7 +10324,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -10440,7 +10440,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -10614,7 +10614,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -10904,7 +10904,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -10933,7 +10933,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -10962,7 +10962,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -11049,7 +11049,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -11136,7 +11136,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>224</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>229</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -11484,7 +11484,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -11542,7 +11542,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -11571,7 +11571,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -11687,7 +11687,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -11745,7 +11745,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -11774,7 +11774,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>246</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -11803,7 +11803,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -11890,7 +11890,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -11948,7 +11948,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>254</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -12035,7 +12035,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -12122,7 +12122,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -12209,7 +12209,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -12267,7 +12267,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -12296,7 +12296,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -12470,7 +12470,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -12586,7 +12586,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -12615,7 +12615,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -12702,7 +12702,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>280</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -12789,7 +12789,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>282</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -12847,7 +12847,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -12876,7 +12876,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -12905,7 +12905,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -12934,7 +12934,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -13079,7 +13079,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -13108,7 +13108,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -13137,7 +13137,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>294</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -13195,7 +13195,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>296</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -13282,7 +13282,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -13398,7 +13398,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -13456,7 +13456,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -13485,7 +13485,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>306</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -13572,7 +13572,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>309</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -13630,7 +13630,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -13659,7 +13659,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -13688,7 +13688,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -13833,7 +13833,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -13862,7 +13862,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>318</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -13920,7 +13920,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>320</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -13949,7 +13949,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -13978,7 +13978,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>322</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -14007,7 +14007,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -14065,7 +14065,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>325</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -14094,7 +14094,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>326</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>327</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -14210,7 +14210,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>330</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -14268,7 +14268,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -14297,7 +14297,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -14326,7 +14326,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -14384,7 +14384,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -14413,7 +14413,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>337</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -14442,7 +14442,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -14471,7 +14471,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -14500,7 +14500,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>340</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -14529,7 +14529,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -14558,7 +14558,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -14587,7 +14587,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>343</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -14616,7 +14616,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -14645,7 +14645,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -14732,7 +14732,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -14761,7 +14761,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>349</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -14790,7 +14790,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>350</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -14848,7 +14848,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -14877,7 +14877,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>353</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>354</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -14964,7 +14964,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -15051,7 +15051,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>382</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -15080,7 +15080,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -15109,7 +15109,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>387</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -15167,7 +15167,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -15254,7 +15254,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -15283,7 +15283,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -15312,7 +15312,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -15341,7 +15341,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -15370,7 +15370,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -15399,7 +15399,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
